--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="878">
   <si>
     <t>anchor score</t>
   </si>
@@ -97,679 +97,679 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>shame</t>
   </si>
   <si>
     <t>social</t>
@@ -3013,10 +3013,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3074,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03392490153195198</v>
+        <v>0.03447084234656026</v>
       </c>
       <c r="C3">
         <v>247</v>
@@ -3124,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03323106746716371</v>
+        <v>0.03376584266838985</v>
       </c>
       <c r="C4">
         <v>237</v>
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01348038893679476</v>
+        <v>0.0136973238189921</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3195,7 +3195,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>0.01019002327425582</v>
@@ -3224,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01201851932356469</v>
+        <v>0.01221192888213666</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3245,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.009473096429393486</v>
@@ -3274,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01100669147646887</v>
+        <v>0.01118381806606695</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -3295,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="K7">
         <v>0.008815073220866885</v>
@@ -3304,19 +3304,19 @@
         <v>226</v>
       </c>
       <c r="M7">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N7">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3324,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01079294896511733</v>
+        <v>0.01096663587602825</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3345,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>0.008617843043708998</v>
@@ -3374,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01079294896511733</v>
+        <v>0.01096663587602825</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -3395,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>0.008292523335198891</v>
@@ -3424,7 +3424,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01012468358419126</v>
+        <v>0.01028761634903359</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3445,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.008124980340543932</v>
@@ -3474,7 +3474,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01012468358419126</v>
+        <v>0.01028761634903359</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -3495,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>0.00808255195477129</v>
@@ -3524,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009891901120889094</v>
+        <v>0.01005108780418356</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -3545,7 +3545,7 @@
         <v>2541</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="K12">
         <v>0.007734750845398433</v>
@@ -3554,19 +3554,19 @@
         <v>174</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3574,7 +3574,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009653507025475344</v>
+        <v>0.00980885732131485</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3595,7 +3595,7 @@
         <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>0.007440200556986256</v>
@@ -3624,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00940907476834767</v>
+        <v>0.009560491506842959</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -3645,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>0.007060829191178126</v>
@@ -3674,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00940907476834767</v>
+        <v>0.009560491506842959</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -3695,7 +3695,7 @@
         <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>0.006659882386784896</v>
@@ -3724,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00940907476834767</v>
+        <v>0.009560491506842959</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -3745,7 +3745,7 @@
         <v>1720</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <v>0.006659882386784896</v>
@@ -3774,7 +3774,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.009158120882681755</v>
+        <v>0.0093054991136919</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -3795,7 +3795,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>0.006450069431813503</v>
@@ -3824,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008900093719015916</v>
+        <v>0.009043319614910507</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3845,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K18">
         <v>0.006233198051130915</v>
@@ -3874,7 +3874,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008634359172093865</v>
+        <v>0.0087733087008226</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>0.006093735255407949</v>
@@ -3924,7 +3924,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0083601823196732</v>
+        <v>0.008494719622355641</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3945,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K20">
         <v>0.005863699483466821</v>
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0083601823196732</v>
+        <v>0.008494719622355641</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>0.005775074240512998</v>
@@ -4024,28 +4024,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0083601823196732</v>
+        <v>0.008206678826720243</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>0.005437771198190651</v>
@@ -4074,13 +4074,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008076703444081085</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.00530980571570895</v>
@@ -4124,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K24">
         <v>0.005277329535120139</v>
@@ -4174,7 +4174,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K25">
         <v>0.005178679162998908</v>
@@ -4224,7 +4224,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K26">
         <v>0.005044145022497143</v>
@@ -4274,13 +4274,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007782906181439307</v>
+        <v>0.00759790821015542</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27">
         <v>0.004940841007258829</v>
@@ -4324,7 +4324,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007477574388432461</v>
+        <v>0.00759790821015542</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K28">
         <v>0.004835330465442684</v>
@@ -4374,28 +4374,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007477574388432461</v>
+        <v>0.00759790821015542</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K29">
         <v>0.00479964488204222</v>
@@ -4424,28 +4424,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007477574388432461</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K30">
         <v>0.004503993035421052</v>
@@ -4474,28 +4474,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007477574388432461</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31">
         <v>0.004465660482705471</v>
@@ -4524,28 +4524,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00715923241974976</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>622</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K32">
         <v>0.004387990897227235</v>
@@ -4574,28 +4574,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00715923241974976</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K33">
         <v>0.004228373830310266</v>
@@ -4624,28 +4624,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00715923241974976</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>622</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K34">
         <v>0.004228373830310266</v>
@@ -4674,28 +4674,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00715923241974976</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35">
         <v>0.004146261667599445</v>
@@ -4724,7 +4724,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4742,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K36">
         <v>0.004104589638426775</v>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K37">
         <v>0.004019949833919853</v>
@@ -4824,7 +4824,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>252</v>
@@ -4874,28 +4874,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K39">
         <v>0.003800111588573657</v>
@@ -4924,28 +4924,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K40">
         <v>0.003800111588573657</v>
@@ -4974,25 +4974,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006475769379070399</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>676</v>
+        <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>253</v>
@@ -5024,28 +5024,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006475769379070399</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K42">
         <v>0.003754599628360888</v>
@@ -5074,7 +5074,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006105413921787837</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K43">
         <v>0.003708529176501599</v>
@@ -5124,13 +5124,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006105413921787837</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K44">
         <v>0.003708529176501599</v>
@@ -5174,13 +5174,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006105413921787837</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K45">
         <v>0.0035667491506961</v>
@@ -5224,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -5242,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K46">
         <v>0.003518219690080092</v>
@@ -5274,7 +5274,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K47">
         <v>0.003518219690080092</v>
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5342,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K48">
         <v>0.003469011396830972</v>
@@ -5374,7 +5374,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>254</v>
@@ -5424,7 +5424,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>255</v>
@@ -5474,7 +5474,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -5492,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K51">
         <v>0.003317009334079556</v>
@@ -5524,7 +5524,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K52">
         <v>0.003317009334079556</v>
@@ -5574,7 +5574,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K53">
         <v>0.003317009334079556</v>
@@ -5624,28 +5624,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>0.003264769701839137</v>
@@ -5674,28 +5674,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K55">
         <v>0.003264769701839137</v>
@@ -5724,28 +5724,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00571109177494248</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K56">
         <v>0.003264769701839137</v>
@@ -5774,25 +5774,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00571109177494248</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>256</v>
@@ -5824,7 +5824,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5845,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K58">
         <v>0.003157698809797829</v>
@@ -5874,7 +5874,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K59">
         <v>0.003102778119214221</v>
@@ -5924,7 +5924,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>257</v>
@@ -5974,13 +5974,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005287443556887443</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5992,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K61">
         <v>0.003046867627703975</v>
@@ -6024,13 +6024,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005287443556887443</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K62">
         <v>0.003046867627703975</v>
@@ -6074,7 +6074,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6092,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K63">
         <v>0.002989911808804125</v>
@@ -6124,28 +6124,28 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K64">
         <v>0.002989911808804125</v>
@@ -6174,28 +6174,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K65">
         <v>0.002989911808804125</v>
@@ -6224,28 +6224,28 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E66">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F66">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K66">
         <v>0.002989911808804125</v>
@@ -6274,28 +6274,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F67">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K67">
         <v>0.002931849741733411</v>
@@ -6324,25 +6324,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E68">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F68">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>258</v>
@@ -6374,25 +6374,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004826753512737672</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>259</v>
@@ -6424,25 +6424,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004826753512737672</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>260</v>
@@ -6474,7 +6474,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>261</v>
@@ -6524,25 +6524,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>262</v>
@@ -6574,28 +6574,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K73">
         <v>0.002750318846812128</v>
@@ -6624,28 +6624,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E74">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F74">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K74">
         <v>0.002687084673546016</v>
@@ -6674,25 +6674,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E75">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F75">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>263</v>
@@ -6724,25 +6724,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="E76">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F76">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>264</v>
@@ -6774,28 +6774,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K77">
         <v>0.002687084673546016</v>
@@ -6824,28 +6824,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004317179586046932</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K78">
         <v>0.002687084673546016</v>
@@ -6874,13 +6874,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004317179586046932</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6892,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K79">
         <v>0.002622326128932443</v>
@@ -6924,7 +6924,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>265</v>
@@ -6974,7 +6974,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K81">
         <v>0.002622326128932443</v>
@@ -7024,7 +7024,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>266</v>
@@ -7074,7 +7074,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7092,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K83">
         <v>0.002555927348372352</v>
@@ -7124,7 +7124,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>267</v>
@@ -7174,28 +7174,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>27</v>
+        <v>1122</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K85">
         <v>0.002487757000559667</v>
@@ -7224,28 +7224,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K86">
         <v>0.002487757000559667</v>
@@ -7274,28 +7274,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F87">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1122</v>
+        <v>84</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K87">
         <v>0.002345479793386728</v>
@@ -7324,25 +7324,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E88">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F88">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>268</v>
@@ -7374,28 +7374,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E89">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F89">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>84</v>
+        <v>589</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K89">
         <v>0.002345479793386728</v>
@@ -7424,28 +7424,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>3037</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K90">
         <v>0.002271001044663203</v>
@@ -7474,25 +7474,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E91">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F91">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>589</v>
+        <v>9</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>269</v>
@@ -7524,28 +7524,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="E92">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F92">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>3037</v>
+        <v>947</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K92">
         <v>0.002271001044663203</v>
@@ -7574,25 +7574,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E93">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F93">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>270</v>
@@ -7624,25 +7624,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E94">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F94">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>947</v>
+        <v>102</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>271</v>
@@ -7674,28 +7674,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F95">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K95">
         <v>0.002193995448613617</v>
@@ -7724,28 +7724,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00373878719421623</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K96">
         <v>0.002193995448613617</v>
@@ -7774,25 +7774,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00373878719421623</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>272</v>
@@ -7824,7 +7824,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K98">
         <v>0.002193995448613617</v>
@@ -7874,7 +7874,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K99">
         <v>0.002193995448613617</v>
@@ -7924,7 +7924,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -7942,10 +7942,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K100">
         <v>0.002114186915155133</v>
@@ -7974,7 +7974,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>273</v>
@@ -8024,7 +8024,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8045,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K102">
         <v>0.002114186915155133</v>
@@ -8074,7 +8074,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8124,7 +8124,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8174,7 +8174,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8192,10 +8192,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K105">
         <v>0.002031245085135983</v>
@@ -8224,7 +8224,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8242,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K106">
         <v>0.002031245085135983</v>
@@ -8274,25 +8274,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>276</v>
@@ -8324,25 +8324,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>277</v>
@@ -8374,25 +8374,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="F109">
-        <v>0.17</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>278</v>
@@ -8424,25 +8424,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E110">
-        <v>0.33</v>
+        <v>0.98</v>
       </c>
       <c r="F110">
-        <v>0.6699999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>279</v>
@@ -8474,28 +8474,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K111">
         <v>0.002031245085135983</v>
@@ -8524,25 +8524,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>280</v>
@@ -8574,25 +8574,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>281</v>
@@ -8624,25 +8624,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>282</v>
@@ -8674,25 +8674,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E115">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>283</v>
@@ -8724,25 +8724,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>284</v>
@@ -8774,25 +8774,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F117">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>285</v>
@@ -8824,25 +8824,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>286</v>
@@ -8874,28 +8874,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F119">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K119">
         <v>0.001854264588250799</v>
@@ -8924,25 +8924,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F120">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>287</v>
@@ -8974,28 +8974,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E121">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F121">
-        <v>0.18</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K121">
         <v>0.001854264588250799</v>
@@ -9024,25 +9024,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>288</v>
@@ -9074,25 +9074,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F123">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>289</v>
@@ -9124,25 +9124,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>290</v>
@@ -9174,25 +9174,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F125">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>291</v>
@@ -9224,25 +9224,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E126">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F126">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>292</v>
@@ -9274,25 +9274,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="E127">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F127">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>293</v>
@@ -9324,25 +9324,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F128">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>294</v>
@@ -9374,25 +9374,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E129">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>295</v>
@@ -9424,7 +9424,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>296</v>
@@ -9474,25 +9474,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>297</v>
@@ -9524,28 +9524,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.003052706960893918</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K132">
         <v>0.001759109845040046</v>
@@ -9574,13 +9574,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.003052706960893918</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9592,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K133">
         <v>0.001759109845040046</v>
@@ -9624,7 +9624,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9642,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K134">
         <v>0.001759109845040046</v>
@@ -9674,7 +9674,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>298</v>
@@ -9724,7 +9724,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K136">
         <v>0.001658504667039778</v>
@@ -9774,7 +9774,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K137">
         <v>0.001658504667039778</v>
@@ -9824,7 +9824,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>299</v>
@@ -9874,7 +9874,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K139">
         <v>0.001658504667039778</v>
@@ -9924,7 +9924,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>300</v>
@@ -9974,28 +9974,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K141">
         <v>0.001658504667039778</v>
@@ -10024,25 +10024,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>301</v>
@@ -10074,25 +10074,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>302</v>
@@ -10124,25 +10124,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>303</v>
@@ -10174,28 +10174,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K145">
         <v>0.001658504667039778</v>
@@ -10224,25 +10224,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>304</v>
@@ -10274,28 +10274,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F147">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K147">
         <v>0.001658504667039778</v>
@@ -10324,25 +10324,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>305</v>
@@ -10374,25 +10374,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F149">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>306</v>
@@ -10424,28 +10424,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K150">
         <v>0.001551389059607111</v>
@@ -10474,25 +10474,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>307</v>
@@ -10524,28 +10524,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K152">
         <v>0.001551389059607111</v>
@@ -10574,25 +10574,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>308</v>
@@ -10624,25 +10624,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>309</v>
@@ -10674,7 +10674,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>310</v>
@@ -10724,25 +10724,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>311</v>
@@ -10774,28 +10774,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K157">
         <v>0.001551389059607111</v>
@@ -10824,28 +10824,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K158">
         <v>0.001551389059607111</v>
@@ -10874,25 +10874,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>312</v>
@@ -10924,25 +10924,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>313</v>
@@ -10974,25 +10974,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>314</v>
@@ -11024,25 +11024,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E162">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>315</v>
@@ -11074,25 +11074,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>316</v>
@@ -11124,28 +11124,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K164">
         <v>0.001551389059607111</v>
@@ -11174,28 +11174,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K165">
         <v>0.0014363071739515</v>
@@ -11224,28 +11224,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K166">
         <v>0.0014363071739515</v>
@@ -11274,25 +11274,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>317</v>
@@ -11324,25 +11324,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>318</v>
@@ -11374,7 +11374,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>319</v>
@@ -11424,28 +11424,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K170">
         <v>0.0014363071739515</v>
@@ -11474,28 +11474,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K171">
         <v>0.0014363071739515</v>
@@ -11524,28 +11524,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K172">
         <v>0.0014363071739515</v>
@@ -11574,25 +11574,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>320</v>
@@ -11624,25 +11624,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>321</v>
@@ -11674,28 +11674,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K175">
         <v>0.0014363071739515</v>
@@ -11724,25 +11724,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>322</v>
@@ -11774,25 +11774,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>323</v>
@@ -11824,25 +11824,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>324</v>
@@ -11874,25 +11874,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>325</v>
@@ -11924,25 +11924,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>326</v>
@@ -11974,25 +11974,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>327</v>
@@ -12024,25 +12024,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F182">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>328</v>
@@ -12074,25 +12074,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>329</v>
@@ -12124,28 +12124,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E184">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F184">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K184">
         <v>0.001311163064466222</v>
@@ -12174,25 +12174,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>330</v>
@@ -12224,25 +12224,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>331</v>
@@ -12274,25 +12274,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>332</v>
@@ -12324,25 +12324,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>333</v>
@@ -12374,25 +12374,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>334</v>
@@ -12424,25 +12424,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>335</v>
@@ -12474,25 +12474,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>336</v>
@@ -12524,25 +12524,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>337</v>
@@ -12574,25 +12574,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>338</v>
@@ -12624,25 +12624,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>339</v>
@@ -12674,28 +12674,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K195">
         <v>0.001311163064466222</v>
@@ -12724,25 +12724,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>340</v>
@@ -12774,25 +12774,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>341</v>
@@ -12824,25 +12824,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>342</v>
@@ -12874,25 +12874,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>343</v>
@@ -12924,25 +12924,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>344</v>
@@ -12974,25 +12974,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>345</v>
@@ -13024,25 +13024,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>346</v>
@@ -13074,25 +13074,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>347</v>
@@ -13124,25 +13124,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>348</v>
@@ -13174,25 +13174,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F205">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>349</v>
@@ -13224,28 +13224,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K206">
         <v>0.001172739896693364</v>
@@ -13274,25 +13274,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E207">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>350</v>
@@ -13324,25 +13324,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>351</v>
@@ -13374,25 +13374,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>352</v>
@@ -13424,25 +13424,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>353</v>
@@ -13474,25 +13474,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>354</v>
@@ -13524,25 +13524,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>355</v>
@@ -13574,25 +13574,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>356</v>
@@ -13624,25 +13624,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>357</v>
@@ -13674,13 +13674,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E215">
         <v>0.95</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>358</v>
@@ -13724,28 +13724,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K216">
         <v>0.001172739896693364</v>
@@ -13774,25 +13774,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>109</v>
+        <v>817</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>359</v>
@@ -13824,25 +13824,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>360</v>
@@ -13874,25 +13874,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E219">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F219">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>817</v>
+        <v>133</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>361</v>
@@ -13924,25 +13924,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>362</v>
@@ -13974,25 +13974,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E221">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>363</v>
@@ -14024,25 +14024,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E222">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F222">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>364</v>
@@ -14074,25 +14074,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>365</v>
@@ -14124,13 +14124,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E224">
         <v>0.97</v>
@@ -14142,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>366</v>
@@ -14174,25 +14174,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>367</v>
@@ -14224,7 +14224,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14242,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>368</v>
@@ -14274,25 +14274,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>369</v>
@@ -14324,25 +14324,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>370</v>
@@ -14374,19 +14374,19 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
@@ -14424,25 +14424,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>372</v>
@@ -14474,25 +14474,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>373</v>
@@ -14524,28 +14524,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K232">
         <v>0.001172739896693364</v>
@@ -14574,7 +14574,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>374</v>
@@ -14624,25 +14624,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>375</v>
@@ -14674,28 +14674,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K235">
         <v>0.001172739896693364</v>
@@ -14724,25 +14724,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>376</v>
@@ -14774,25 +14774,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>377</v>
@@ -14824,25 +14824,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F238">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>378</v>
@@ -14874,28 +14874,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K239">
         <v>0.001172739896693364</v>
@@ -14924,25 +14924,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>379</v>
@@ -14974,25 +14974,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>380</v>
@@ -15024,7 +15024,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>381</v>
@@ -15074,7 +15074,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>382</v>
@@ -15124,7 +15124,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>383</v>
@@ -15170,30 +15170,6 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.002158589793023466</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245">
-        <v>6</v>
-      </c>
       <c r="J245" s="1" t="s">
         <v>384</v>
       </c>
@@ -15220,30 +15196,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.002158589793023466</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>36</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>385</v>
       </c>
@@ -15687,7 +15639,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K263">
         <v>0.001015622542567991</v>
@@ -15947,7 +15899,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K273">
         <v>0.001015622542567991</v>
@@ -16207,7 +16159,7 @@
     </row>
     <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K283">
         <v>0.001015622542567991</v>
@@ -16753,7 +16705,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K304">
         <v>0.001015622542567991</v>
@@ -16857,7 +16809,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K308">
         <v>0.001015622542567991</v>
@@ -16961,7 +16913,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K312">
         <v>0.001015622542567991</v>
@@ -17351,7 +17303,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K327">
         <v>0.0008292523335198891</v>
@@ -17533,7 +17485,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K334">
         <v>0.0008292523335198891</v>
@@ -18027,7 +17979,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K353">
         <v>0.0008292523335198891</v>
@@ -18053,7 +18005,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K354">
         <v>0.0008292523335198891</v>
@@ -18183,7 +18135,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K359">
         <v>0.0008292523335198891</v>
@@ -18469,7 +18421,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K370">
         <v>0.0008292523335198891</v>
@@ -18625,7 +18577,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K376">
         <v>0.0008292523335198891</v>
@@ -19743,7 +19695,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K419">
         <v>0.0008292523335198891</v>
@@ -20497,7 +20449,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K448">
         <v>0.0008292523335198891</v>
@@ -21173,7 +21125,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K474">
         <v>0.0005863699483466821</v>
@@ -21745,7 +21697,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K496">
         <v>0.0005863699483466821</v>
@@ -22083,7 +22035,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K509">
         <v>0.0005863699483466821</v>
@@ -22941,7 +22893,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K542">
         <v>0.0005863699483466821</v>
@@ -23903,7 +23855,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K579">
         <v>0.0005863699483466821</v>
@@ -25125,7 +25077,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K626">
         <v>0.0005863699483466821</v>
@@ -25463,7 +25415,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K639">
         <v>0.0005863699483466821</v>
@@ -26035,7 +25987,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K661">
         <v>0.0005863699483466821</v>
@@ -26659,7 +26611,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K685">
         <v>0.0005863699483466821</v>
@@ -26737,7 +26689,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K688">
         <v>0.0005863699483466821</v>
@@ -26971,7 +26923,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K697">
         <v>0.0005863699483466821</v>
@@ -27959,7 +27911,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K735">
         <v>0.0005863699483466821</v>
@@ -28739,7 +28691,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K765">
         <v>0.0005863699483466821</v>
